--- a/Product/StaticData/Weapon.xlsx
+++ b/Product/StaticData/Weapon.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
   <si>
     <t>weaponName</t>
   </si>
@@ -66,18 +66,24 @@
     <t>maxAmmo</t>
   </si>
   <si>
+    <t>bulletFlashPrefab</t>
+  </si>
+  <si>
+    <t>projectilesPrefab</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
+    <t>int</t>
+  </si>
+  <si>
     <t>float</t>
   </si>
   <si>
     <t>flaot</t>
   </si>
   <si>
-    <t>int</t>
-  </si>
-  <si>
     <t>武器名称</t>
   </si>
   <si>
@@ -114,10 +120,22 @@
     <t>每个弹夹弹药量</t>
   </si>
   <si>
+    <t>枪口火焰模型</t>
+  </si>
+  <si>
+    <t>弹道模型</t>
+  </si>
+  <si>
     <t>AK12</t>
   </si>
   <si>
     <t>BulletBlue</t>
+  </si>
+  <si>
+    <t>BulletFlashBlue</t>
+  </si>
+  <si>
+    <t>Projectile_Shotgun</t>
   </si>
   <si>
     <t>M4A1</t>
@@ -1112,10 +1130,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1130,9 +1148,10 @@
     <col min="10" max="10" width="19.125" customWidth="1"/>
     <col min="11" max="11" width="17.125" customWidth="1"/>
     <col min="12" max="12" width="13.6583333333333" customWidth="1"/>
+    <col min="13" max="14" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:12">
+    <row r="1" s="1" customFormat="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1169,89 +1188,107 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:12">
+    <row r="2" s="1" customFormat="1" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="M2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:12">
+    <row r="3" s="1" customFormat="1" spans="1:14">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:12">
+    <row r="4" s="1" customFormat="1" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C4" s="3">
         <v>0</v>
@@ -1260,7 +1297,7 @@
         <v>0.2</v>
       </c>
       <c r="E4" s="1">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="F4" s="1">
         <v>8</v>
@@ -1283,13 +1320,19 @@
       <c r="L4" s="1">
         <v>2</v>
       </c>
+      <c r="M4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:12">
+    <row r="5" s="1" customFormat="1" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C5" s="3">
         <v>0</v>
@@ -1298,7 +1341,7 @@
         <v>0.2</v>
       </c>
       <c r="E5" s="1">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="F5" s="1">
         <v>8</v>
@@ -1321,13 +1364,19 @@
       <c r="L5" s="1">
         <v>2</v>
       </c>
+      <c r="M5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:12">
+    <row r="6" s="1" customFormat="1" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C6" s="3">
         <v>0</v>
@@ -1336,7 +1385,7 @@
         <v>0.2</v>
       </c>
       <c r="E6" s="1">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="F6" s="1">
         <v>8</v>
@@ -1359,13 +1408,19 @@
       <c r="L6" s="1">
         <v>2</v>
       </c>
+      <c r="M6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:12">
+    <row r="7" s="1" customFormat="1" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C7" s="3">
         <v>0</v>
@@ -1374,7 +1429,7 @@
         <v>0.2</v>
       </c>
       <c r="E7" s="1">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="F7" s="1">
         <v>8</v>
@@ -1397,13 +1452,19 @@
       <c r="L7" s="1">
         <v>2</v>
       </c>
+      <c r="M7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:12">
+    <row r="8" s="1" customFormat="1" spans="1:14">
       <c r="A8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="C8" s="3">
         <v>0</v>
@@ -1412,7 +1473,7 @@
         <v>0.2</v>
       </c>
       <c r="E8" s="1">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="F8" s="1">
         <v>8</v>
@@ -1434,6 +1495,12 @@
       </c>
       <c r="L8" s="1">
         <v>2</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1467,18 +1534,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Product/StaticData/Weapon.xlsx
+++ b/Product/StaticData/Weapon.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28785" windowHeight="12975" tabRatio="613"/>
+    <workbookView windowWidth="28800" windowHeight="12960" tabRatio="613"/>
   </bookViews>
   <sheets>
     <sheet name="guns" sheetId="5" r:id="rId1"/>
@@ -1132,8 +1132,8 @@
   <sheetPr/>
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1291,19 +1291,19 @@
         <v>33</v>
       </c>
       <c r="C4" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="E4" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F4" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G4" s="1">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
@@ -1335,7 +1335,7 @@
         <v>33</v>
       </c>
       <c r="C5" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" s="1">
         <v>0.2</v>
@@ -1379,7 +1379,7 @@
         <v>33</v>
       </c>
       <c r="C6" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6" s="1">
         <v>0.2</v>
@@ -1423,7 +1423,7 @@
         <v>33</v>
       </c>
       <c r="C7" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1">
         <v>0.2</v>
@@ -1467,7 +1467,7 @@
         <v>33</v>
       </c>
       <c r="C8" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D8" s="1">
         <v>0.2</v>
